--- a/natmiOut/OldD0/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Il12a</t>
   </si>
   <si>
     <t>Il12rb2</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>2.28448981586433</v>
+        <v>0.5836923333333334</v>
       </c>
       <c r="H2">
-        <v>2.28448981586433</v>
+        <v>1.751077</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.177892446141138</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.177892446141138</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.337452216177614</v>
+        <v>0.3965076666666666</v>
       </c>
       <c r="N2">
-        <v>0.337452216177614</v>
+        <v>1.189523</v>
       </c>
       <c r="O2">
-        <v>0.3793408245817947</v>
+        <v>0.4130025765723914</v>
       </c>
       <c r="P2">
-        <v>0.3793408245817947</v>
+        <v>0.4130025765723914</v>
       </c>
       <c r="Q2">
-        <v>0.7709061511986075</v>
+        <v>0.2314384851412222</v>
       </c>
       <c r="R2">
-        <v>0.7709061511986075</v>
+        <v>2.082946366271</v>
       </c>
       <c r="S2">
-        <v>0.3793408245817947</v>
+        <v>0.07347003860905535</v>
       </c>
       <c r="T2">
-        <v>0.3793408245817947</v>
+        <v>0.07347003860905535</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>2.28448981586433</v>
+        <v>0.5836923333333334</v>
       </c>
       <c r="H3">
-        <v>2.28448981586433</v>
+        <v>1.751077</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.177892446141138</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.177892446141138</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.434490220889968</v>
+        <v>0.4379896666666667</v>
       </c>
       <c r="N3">
-        <v>0.434490220889968</v>
+        <v>1.313969</v>
       </c>
       <c r="O3">
-        <v>0.4884243479923557</v>
+        <v>0.4562102477516186</v>
       </c>
       <c r="P3">
-        <v>0.4884243479923557</v>
+        <v>0.4562102477516186</v>
       </c>
       <c r="Q3">
-        <v>0.9925884847157752</v>
+        <v>0.2556512105125556</v>
       </c>
       <c r="R3">
-        <v>0.9925884847157752</v>
+        <v>2.300860894613</v>
       </c>
       <c r="S3">
-        <v>0.4884243479923557</v>
+        <v>0.08115635692719003</v>
       </c>
       <c r="T3">
-        <v>0.4884243479923557</v>
+        <v>0.08115635692719003</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +643,433 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.5836923333333334</v>
+      </c>
+      <c r="H4">
+        <v>1.751077</v>
+      </c>
+      <c r="I4">
+        <v>0.177892446141138</v>
+      </c>
+      <c r="J4">
+        <v>0.177892446141138</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.1255636666666667</v>
+      </c>
+      <c r="N4">
+        <v>0.376691</v>
+      </c>
+      <c r="O4">
+        <v>0.13078717567599</v>
+      </c>
+      <c r="P4">
+        <v>0.13078717567599</v>
+      </c>
+      <c r="Q4">
+        <v>0.07329054957855556</v>
+      </c>
+      <c r="R4">
+        <v>0.659614946207</v>
+      </c>
+      <c r="S4">
+        <v>0.02326605060489261</v>
+      </c>
+      <c r="T4">
+        <v>0.02326605060489261</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="C4" t="s">
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>2.338794666666666</v>
+      </c>
+      <c r="H5">
+        <v>7.016384</v>
+      </c>
+      <c r="I5">
+        <v>0.7127965890851986</v>
+      </c>
+      <c r="J5">
+        <v>0.7127965890851986</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.3965076666666666</v>
+      </c>
+      <c r="N5">
+        <v>1.189523</v>
+      </c>
+      <c r="O5">
+        <v>0.4130025765723914</v>
+      </c>
+      <c r="P5">
+        <v>0.4130025765723914</v>
+      </c>
+      <c r="Q5">
+        <v>0.9273500160924443</v>
+      </c>
+      <c r="R5">
+        <v>8.346150144831999</v>
+      </c>
+      <c r="S5">
+        <v>0.2943868278641991</v>
+      </c>
+      <c r="T5">
+        <v>0.2943868278641991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.338794666666666</v>
+      </c>
+      <c r="H6">
+        <v>7.016384</v>
+      </c>
+      <c r="I6">
+        <v>0.7127965890851986</v>
+      </c>
+      <c r="J6">
+        <v>0.7127965890851986</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.4379896666666667</v>
+      </c>
+      <c r="N6">
+        <v>1.313969</v>
+      </c>
+      <c r="O6">
+        <v>0.4562102477516186</v>
+      </c>
+      <c r="P6">
+        <v>0.4562102477516186</v>
+      </c>
+      <c r="Q6">
+        <v>1.024367896455111</v>
+      </c>
+      <c r="R6">
+        <v>9.219311068096001</v>
+      </c>
+      <c r="S6">
+        <v>0.3251851085030671</v>
+      </c>
+      <c r="T6">
+        <v>0.3251851085030671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.338794666666666</v>
+      </c>
+      <c r="H7">
+        <v>7.016384</v>
+      </c>
+      <c r="I7">
+        <v>0.7127965890851986</v>
+      </c>
+      <c r="J7">
+        <v>0.7127965890851986</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.1255636666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.376691</v>
+      </c>
+      <c r="O7">
+        <v>0.13078717567599</v>
+      </c>
+      <c r="P7">
+        <v>0.13078717567599</v>
+      </c>
+      <c r="Q7">
+        <v>0.293667633927111</v>
+      </c>
+      <c r="R7">
+        <v>2.643008705344</v>
+      </c>
+      <c r="S7">
+        <v>0.09322465271793234</v>
+      </c>
+      <c r="T7">
+        <v>0.09322465271793234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.28448981586433</v>
-      </c>
-      <c r="H4">
-        <v>2.28448981586433</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.117632832216021</v>
-      </c>
-      <c r="N4">
-        <v>0.117632832216021</v>
-      </c>
-      <c r="O4">
-        <v>0.1322348274258497</v>
-      </c>
-      <c r="P4">
-        <v>0.1322348274258497</v>
-      </c>
-      <c r="Q4">
-        <v>0.2687310072087775</v>
-      </c>
-      <c r="R4">
-        <v>0.2687310072087775</v>
-      </c>
-      <c r="S4">
-        <v>0.1322348274258497</v>
-      </c>
-      <c r="T4">
-        <v>0.1322348274258497</v>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.358666</v>
+      </c>
+      <c r="H8">
+        <v>1.075998</v>
+      </c>
+      <c r="I8">
+        <v>0.1093109647736634</v>
+      </c>
+      <c r="J8">
+        <v>0.1093109647736634</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.3965076666666666</v>
+      </c>
+      <c r="N8">
+        <v>1.189523</v>
+      </c>
+      <c r="O8">
+        <v>0.4130025765723914</v>
+      </c>
+      <c r="P8">
+        <v>0.4130025765723914</v>
+      </c>
+      <c r="Q8">
+        <v>0.1422138187726666</v>
+      </c>
+      <c r="R8">
+        <v>1.279924368954</v>
+      </c>
+      <c r="S8">
+        <v>0.0451457100991369</v>
+      </c>
+      <c r="T8">
+        <v>0.0451457100991369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.358666</v>
+      </c>
+      <c r="H9">
+        <v>1.075998</v>
+      </c>
+      <c r="I9">
+        <v>0.1093109647736634</v>
+      </c>
+      <c r="J9">
+        <v>0.1093109647736634</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.4379896666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.313969</v>
+      </c>
+      <c r="O9">
+        <v>0.4562102477516186</v>
+      </c>
+      <c r="P9">
+        <v>0.4562102477516186</v>
+      </c>
+      <c r="Q9">
+        <v>0.1570920017846667</v>
+      </c>
+      <c r="R9">
+        <v>1.413828016062</v>
+      </c>
+      <c r="S9">
+        <v>0.04986878232136144</v>
+      </c>
+      <c r="T9">
+        <v>0.04986878232136144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.358666</v>
+      </c>
+      <c r="H10">
+        <v>1.075998</v>
+      </c>
+      <c r="I10">
+        <v>0.1093109647736634</v>
+      </c>
+      <c r="J10">
+        <v>0.1093109647736634</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.1255636666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.376691</v>
+      </c>
+      <c r="O10">
+        <v>0.13078717567599</v>
+      </c>
+      <c r="P10">
+        <v>0.13078717567599</v>
+      </c>
+      <c r="Q10">
+        <v>0.04503541806866666</v>
+      </c>
+      <c r="R10">
+        <v>0.405318762618</v>
+      </c>
+      <c r="S10">
+        <v>0.01429647235316507</v>
+      </c>
+      <c r="T10">
+        <v>0.01429647235316507</v>
       </c>
     </row>
   </sheetData>
